--- a/prod_result_SYL.xlsx
+++ b/prod_result_SYL.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E5C09D6-FAB7-43C5-972D-73DA483F475B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1E5F32-89D3-49C9-A3AD-83A7EBACF3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{02D957A7-449D-4486-90BB-855E1378C753}"/>
   </bookViews>
   <sheets>
     <sheet name="VATRIM" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
@@ -61,9 +61,9 @@
     <definedName name="__123Graph_CTOTX" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_CTOTXVOL" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_CXM" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_D" hidden="1">[3]E!#REF!</definedName>
+    <definedName name="__123Graph_D" hidden="1">[2]E!#REF!</definedName>
     <definedName name="__123Graph_DCURRENT" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_E" hidden="1">[3]E!#REF!</definedName>
+    <definedName name="__123Graph_E" hidden="1">[2]E!#REF!</definedName>
     <definedName name="__123Graph_ECURRENT" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_X" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XCAFCAC" hidden="1">[1]export!#REF!</definedName>
@@ -71,38 +71,38 @@
     <definedName name="__123Graph_XTOTX" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XTOTXVOL" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XXM" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="_123graph_b" hidden="1">[4]A!#REF!</definedName>
+    <definedName name="_123graph_b" hidden="1">[3]A!#REF!</definedName>
     <definedName name="_12no" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_Fill1" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" hidden="1">[5]C!$P$428:$T$428</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1">[4]C!$P$428:$T$428</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_new1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Parse_In" hidden="1">#REF!</definedName>
     <definedName name="_Parse_Out" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Int" hidden="1">1</definedName>
-    <definedName name="_Regression_Out" hidden="1">[5]C!$AK$18:$AK$18</definedName>
-    <definedName name="_Regression_X" hidden="1">[5]C!$AK$11:$AU$11</definedName>
-    <definedName name="_Regression_Y" hidden="1">[5]C!$AK$10:$AU$10</definedName>
+    <definedName name="_Regression_Out" hidden="1">[4]C!$AK$18:$AK$18</definedName>
+    <definedName name="_Regression_X" hidden="1">[4]C!$AK$11:$AU$11</definedName>
+    <definedName name="_Regression_Y" hidden="1">[4]C!$AK$10:$AU$10</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
-    <definedName name="ACwvu.Print." hidden="1">[6]Med!#REF!</definedName>
+    <definedName name="ACwvu.Print." hidden="1">[5]Med!#REF!</definedName>
     <definedName name="awea" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="cashplan" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="CRES" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="CRISa" hidden="1">[7]A!#REF!</definedName>
+    <definedName name="CRISa" hidden="1">[6]A!#REF!</definedName>
     <definedName name="e" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferes1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferger" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferger1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferges" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="graphe" hidden="1">[3]E!#REF!</definedName>
+    <definedName name="graphe" hidden="1">[2]E!#REF!</definedName>
     <definedName name="kol" hidden="1">#REF!</definedName>
     <definedName name="KONAN" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="kossi" hidden="1">#REF!</definedName>
     <definedName name="new" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="nnnnnnnnnnn" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="pol" hidden="1">[4]A!#REF!</definedName>
+    <definedName name="pol" hidden="1">[3]A!#REF!</definedName>
     <definedName name="popl" hidden="1">#REF!</definedName>
     <definedName name="PROJA" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="q" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -110,7 +110,7 @@
     <definedName name="rtre" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="Rwvu.Print." hidden="1">#N/A</definedName>
     <definedName name="s" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="Swvu.Print." hidden="1">[6]Med!#REF!</definedName>
+    <definedName name="Swvu.Print." hidden="1">[5]Med!#REF!</definedName>
     <definedName name="tenou" hidden="1">#REF!</definedName>
     <definedName name="tyi" hidden="1">#REF!</definedName>
     <definedName name="wrn.Main._.Economic._.Indicators." hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="118">
   <si>
     <t>VA_trim</t>
   </si>
@@ -451,25 +451,94 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>2025-10-01</t>
+  </si>
+  <si>
+    <t>2025-07-01</t>
+  </si>
+  <si>
+    <t>2025-04-01</t>
+  </si>
+  <si>
+    <t>2025-01-01</t>
+  </si>
+  <si>
+    <t>2024-10-01</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
+  </si>
+  <si>
+    <t>2023-07-01</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>2022-10-01</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -481,15 +550,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F72B1890-9B70-478D-B312-7581E9290750}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -564,270 +636,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="pro"/>
-      <sheetName val="ind"/>
-      <sheetName val="VA"/>
-      <sheetName val="conso"/>
-      <sheetName val="Tables du Contenu"/>
-      <sheetName val="Indications"/>
-      <sheetName val="MAP"/>
-      <sheetName val="Data_Eviews"/>
-      <sheetName val="Ind_rel_Prod_CST (2)"/>
-      <sheetName val="Resultats _Reg_Coef"/>
-      <sheetName val="Resultats _Reg_Filted"/>
-      <sheetName val="Resultats _Reg_Resid"/>
-      <sheetName val="Resultats_Ind_Forecast"/>
-      <sheetName val="Data Indicateurs_Trim"/>
-      <sheetName val="AGV_CNA"/>
-      <sheetName val="Feuil1"/>
-      <sheetName val="Feuil2"/>
-      <sheetName val="AGV_IND"/>
-      <sheetName val="AGV_ETALONNAGE"/>
-      <sheetName val="AGV_RESIDUS"/>
-      <sheetName val="AGV_CALAGE"/>
-      <sheetName val="AVG_PREVISION"/>
-      <sheetName val="AEX_CNA"/>
-      <sheetName val="AEX_IND"/>
-      <sheetName val="AEX_ETALONNAGE"/>
-      <sheetName val="AEX_RESIDUS"/>
-      <sheetName val="AEX_CALAGE"/>
-      <sheetName val="AEX_PREVISION"/>
-      <sheetName val="ELE_CNA"/>
-      <sheetName val="ELE_CALAGE"/>
-      <sheetName val="ELE_PREVISION"/>
-      <sheetName val="VATRIM"/>
-      <sheetName val="SYL_CNA"/>
-      <sheetName val="SYL_CALAGE"/>
-      <sheetName val="SYL_PREVISION"/>
-      <sheetName val="EXT_CNA"/>
-      <sheetName val="EXT_IND"/>
-      <sheetName val="EXT_ETALONNAGE"/>
-      <sheetName val="EXT_RESIDUS"/>
-      <sheetName val="EXT_CALAGE"/>
-      <sheetName val="EXT_PREVISION"/>
-      <sheetName val="AUI_CNA"/>
-      <sheetName val="AUI_IND"/>
-      <sheetName val="AUI_ETALONNAGE"/>
-      <sheetName val="AUI_RESIDUS"/>
-      <sheetName val="AUI_CALAGE"/>
-      <sheetName val="AUI_PREVISION"/>
-      <sheetName val="RAF_CNA"/>
-      <sheetName val="RAF_IND"/>
-      <sheetName val="RAF_ETALONNAGE"/>
-      <sheetName val="RAF_RESIDUS"/>
-      <sheetName val="RAF_CALAGE"/>
-      <sheetName val="RAF_PREVISION"/>
-      <sheetName val="ENE_CNA"/>
-      <sheetName val="ENE_IND"/>
-      <sheetName val="ENE_ETALONNAGE"/>
-      <sheetName val="ENE_RESIDUS"/>
-      <sheetName val="ENE_CALAGE"/>
-      <sheetName val="ENE_PREVISION"/>
-      <sheetName val="IAA_CNA"/>
-      <sheetName val="IAA_IND"/>
-      <sheetName val="IAA_ETALONNAGE"/>
-      <sheetName val="IAA_RESIDUS"/>
-      <sheetName val="IAA_CALAGE"/>
-      <sheetName val="IAA_PREVISION"/>
-      <sheetName val="BFA_CNA"/>
-      <sheetName val="BFA_IND"/>
-      <sheetName val="BFA_ETALONNAGE"/>
-      <sheetName val="BFA_RESIDUS"/>
-      <sheetName val="BFA_CALAGE"/>
-      <sheetName val="BFA_PREVISION"/>
-      <sheetName val="BTP_CNA"/>
-      <sheetName val="BTP_IND"/>
-      <sheetName val="BTP_ETALONNAGE"/>
-      <sheetName val="BTP_RESIDUS"/>
-      <sheetName val="BTP_CALAGE"/>
-      <sheetName val="BTP_PREVISION"/>
-      <sheetName val="COM_CNA"/>
-      <sheetName val="COM_IND"/>
-      <sheetName val="COM_ETALONNAGE"/>
-      <sheetName val="COM_RESIDUS"/>
-      <sheetName val="COM_CALAGE"/>
-      <sheetName val="COM_PREVISION"/>
-      <sheetName val="HOT_CNA"/>
-      <sheetName val="HOT_IND"/>
-      <sheetName val="HOT_ETALONNAGE"/>
-      <sheetName val="HOT_RESIDUS"/>
-      <sheetName val="HOT_CALAGE"/>
-      <sheetName val="HOT_PREVISION"/>
-      <sheetName val="TEL_CNA"/>
-      <sheetName val="TEL_IND"/>
-      <sheetName val="TEL_ETALONNAGE"/>
-      <sheetName val="TEL_RESIDUS"/>
-      <sheetName val="TEL_CALAGE"/>
-      <sheetName val="TEL_PREVISION"/>
-      <sheetName val="TRA_CNA"/>
-      <sheetName val="TRA_IND"/>
-      <sheetName val="TRA_ETALONNAGE"/>
-      <sheetName val="TRA_RESIDUS"/>
-      <sheetName val="TRA_CALAGE"/>
-      <sheetName val="TRA_PREVISION"/>
-      <sheetName val="AUS_CNA"/>
-      <sheetName val="AUS_IND"/>
-      <sheetName val="AUS_ETALONNAGE"/>
-      <sheetName val="AUS_RESIDUS"/>
-      <sheetName val="AUS_CALAGE"/>
-      <sheetName val="AUS_PREVISION"/>
-      <sheetName val="APU_CNA"/>
-      <sheetName val="APU_IND"/>
-      <sheetName val="APU_ETALONNAGE"/>
-      <sheetName val="APU_RESIDUS"/>
-      <sheetName val="APU_CALAGE"/>
-      <sheetName val="APU_PREVISION"/>
-      <sheetName val="DTX_CNA"/>
-      <sheetName val="DTX_IND"/>
-      <sheetName val="DTX_ETALONNAGE"/>
-      <sheetName val="DTX_RESIDUS"/>
-      <sheetName val="DTX_CALAGE"/>
-      <sheetName val="DTX_PREVISION"/>
-      <sheetName val="FRANCS CST_2015_op1"/>
-      <sheetName val="FRANCS CST_2015_op2"/>
-      <sheetName val="Option"/>
-      <sheetName val="FRANCS CST_2015"/>
-      <sheetName val="FRANCS CST_2015_Croissance"/>
-      <sheetName val="FRANCS CST_2015_Contributions"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
-      <sheetData sheetId="85"/>
-      <sheetData sheetId="86"/>
-      <sheetData sheetId="87"/>
-      <sheetData sheetId="88"/>
-      <sheetData sheetId="89"/>
-      <sheetData sheetId="90"/>
-      <sheetData sheetId="91"/>
-      <sheetData sheetId="92"/>
-      <sheetData sheetId="93"/>
-      <sheetData sheetId="94"/>
-      <sheetData sheetId="95"/>
-      <sheetData sheetId="96"/>
-      <sheetData sheetId="97"/>
-      <sheetData sheetId="98"/>
-      <sheetData sheetId="99"/>
-      <sheetData sheetId="100"/>
-      <sheetData sheetId="101"/>
-      <sheetData sheetId="102"/>
-      <sheetData sheetId="103"/>
-      <sheetData sheetId="104"/>
-      <sheetData sheetId="105"/>
-      <sheetData sheetId="106"/>
-      <sheetData sheetId="107"/>
-      <sheetData sheetId="108"/>
-      <sheetData sheetId="109"/>
-      <sheetData sheetId="110"/>
-      <sheetData sheetId="111"/>
-      <sheetData sheetId="112"/>
-      <sheetData sheetId="113"/>
-      <sheetData sheetId="114"/>
-      <sheetData sheetId="115"/>
-      <sheetData sheetId="116"/>
-      <sheetData sheetId="117"/>
-      <sheetData sheetId="118"/>
-      <sheetData sheetId="119"/>
-      <sheetData sheetId="120"/>
-      <sheetData sheetId="121"/>
-      <sheetData sheetId="122"/>
-      <sheetData sheetId="123"/>
-      <sheetData sheetId="124"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1040,7 +848,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1161,7 +969,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1461,7 +1269,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1524,7 +1332,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1974,944 +1782,1549 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BF7BCB-34AC-4ABE-BA5E-BF0B5F6D7E4F}">
   <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A117"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>45198.567871543681</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>45885.528278136597</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>47259.449091322458</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>49320.330311101272</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>52068.12610954461</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>53661.102226560608</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>54099.215252740338</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>53382.465188083814</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>51510.831019534788</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>49789.374545976949</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>48218.073990858393</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>46796.929354179112</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>45525.790932148753</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>45068.595973698837</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <v>45425.19059562336</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <v>46595.574797922316</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <v>48579.843727721105</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19">
         <v>49291.442521161764</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>48730.462439214716</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>46896.903481879956</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>43790.862089307702</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23">
         <v>41968.006334184087</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B24">
         <v>41428.439497288753</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25">
         <v>42172.161578621693</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B26">
         <v>44199.18817920451</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27">
         <v>45823.680475628411</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28">
         <v>47045.653353439113</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29">
         <v>47865.106812636608</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30">
         <v>48282.161370740963</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B31">
         <v>48809.268490450857</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32">
         <v>49446.547648571104</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33">
         <v>50193.998845101691</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34">
         <v>51051.763294287106</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35">
         <v>51645.222500003467</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36">
         <v>51974.515304217697</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B37">
         <v>52039.641706929804</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B38">
         <v>51840.512474372917</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B39">
         <v>52534.800931594582</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40">
         <v>54122.417502218312</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B41">
         <v>56603.362186244107</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B42">
         <v>59977.632478138534</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B43">
         <v>61806.388404084682</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B44">
         <v>62089.627599507556</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B45">
         <v>60827.350064407161</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B46">
         <v>58019.592153882761</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B47">
         <v>55933.388627660846</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B48">
         <v>54568.777600206784</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B49">
         <v>53925.759071520573</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B50">
         <v>54004.417087576578</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B51">
         <v>54575.651409389298</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B52">
         <v>55639.545960649848</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B53">
         <v>57196.100741358227</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B54">
         <v>59245.314418900554</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B55">
         <v>58912.08198125042</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B56">
         <v>56196.402141887214</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B57">
         <v>51098.274900810968</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B58">
         <v>43617.551531650068</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B59">
         <v>38203.433109826423</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B60">
         <v>34855.745401921595</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B61">
         <v>33574.488407935569</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B62">
         <v>34359.606148791747</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B63">
         <v>35092.489539751776</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B64">
         <v>35773.083880951272</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B65">
         <v>36401.389172390242</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B66">
         <v>36977.328141469094</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B67">
         <v>37312.5198457652</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B68">
         <v>37406.888216394371</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B69">
         <v>37260.433253356612</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B70">
         <v>36873.203237340407</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B71">
         <v>36951.438736644668</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B72">
         <v>37495.188539049363</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B73">
         <v>38504.452644554491</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B74">
         <v>39979.192883878255</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B75">
         <v>41076.926530564298</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B76">
         <v>41797.616823342723</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B77">
         <v>42141.263762213523</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B78">
         <v>41242.453035357365</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B79">
         <v>41531.487804706427</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B80">
         <v>42142.26738467424</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B81">
         <v>43074.791775260819</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B82">
         <v>44194.302522823004</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B83">
         <v>45005.904623786555</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B84">
         <v>45378.652549354534</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B85">
         <v>45312.546299526948</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B86">
         <v>44871.427669222758</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B87">
         <v>45264.393555029761</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B88">
         <v>46556.005218878614</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B89">
         <v>48746.262660769302</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B90">
         <v>51835.165880701839</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B91">
         <v>53495.455728338158</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B92">
         <v>53727.132203678266</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B93">
         <v>52530.195306722155</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B94">
         <v>49904.64503746984</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B95">
         <v>47935.4823355306</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B96">
         <v>46622.70720090445</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B97">
         <v>45966.319633591367</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B98">
         <v>54159.382790472875</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B99">
         <v>52431.531667796633</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B100">
         <v>50818.222704131731</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>44470</v>
+    <row r="101" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B101">
         <v>49492.01846239825</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>44562</v>
+    <row r="102" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B102">
         <v>58776.868206208252</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>44652</v>
+    <row r="103" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B103">
         <v>57349.282391459463</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>44743</v>
+    <row r="104" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B104">
         <v>55391.287075595457</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>44835</v>
+    <row r="105" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B105">
         <v>53288.144689581532</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>44927</v>
+    <row r="106" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B106">
         <v>63788.028188860582</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>45017</v>
+    <row r="107" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B107">
         <v>62728.287467432965</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>45108</v>
+    <row r="108" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B108">
         <v>60375.875436540431</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>45200</v>
+    <row r="109" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B109">
         <v>57375.440579680406</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>45292</v>
+    <row r="110" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B110">
         <v>69226.426388486914</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>45383</v>
+    <row r="111" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B111">
         <v>68611.809677724741</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>45474</v>
+    <row r="112" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B112">
         <v>65809.020284251266</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>45566</v>
+    <row r="113" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B113">
         <v>61776.239365977606</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>45658</v>
+    <row r="114" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B114">
         <v>75128.48800298055</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>45748</v>
+    <row r="115" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B115">
         <v>75047.16958352142</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>45839</v>
+    <row r="116" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B116">
         <v>71731.086621261798</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>45931</v>
+    <row r="117" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B117">
         <v>66514.587280644089</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDD85D3-E372-4F58-943C-B18567BB5F96}">
+  <dimension ref="A1:A117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A117"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="10.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
